--- a/create cards for OZON WB XLS/data to create Футболки/2024-04-30 Футболка.xlsx
+++ b/create cards for OZON WB XLS/data to create Футболки/2024-04-30 Футболка.xlsx
@@ -15487,7 +15487,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15542,7 +15542,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -15568,7 +15568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30187,7 +30187,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30337,7 +30337,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30415,18 +30415,18 @@
   <dimension ref="A1:BJ1010"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U8" activeCellId="0" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="BA4" activeCellId="0" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="49.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="49.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="27"/>
@@ -30437,7 +30437,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="9" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="25" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30873,7 +30873,7 @@
         <v>66</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="21" t="s">
         <v>4165</v>
@@ -31584,7 +31584,7 @@
         <v>142</v>
       </c>
       <c r="AF10" s="22" t="s">
-        <v>1194</v>
+        <v>646</v>
       </c>
       <c r="AH10" s="22" t="s">
         <v>49</v>
@@ -49797,7 +49797,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -49858,7 +49858,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -49890,7 +49890,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -49938,7 +49938,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
